--- a/SuRGE_Sharepoint/data/ADA/CH4_184_Rush Creek Site 17 Reservoir/dataSheets/surgeData184.xlsx
+++ b/SuRGE_Sharepoint/data/ADA/CH4_184_Rush Creek Site 17 Reservoir/dataSheets/surgeData184.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_184_Rush Creek Site 17 Reservoir/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/ADA/CH4_184_Rush Creek Site 17 Reservoir/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{BA411758-712E-49C3-BD05-E445212589BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE1E905-863E-4A08-B22F-46808BF85265}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{BA411758-712E-49C3-BD05-E445212589BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C63AD7E-2FA3-41B4-A6AF-A6A033AFF985}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1237,6 +1237,10 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,16 +1253,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1318,9 +1318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1358,7 +1358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1464,7 +1464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1606,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,171 +1617,171 @@
   <dimension ref="A1:BZ17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE11" sqref="AE11"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT17" sqref="BT17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="31" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="33" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="32" t="s">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="28" t="s">
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -2123,15 +2123,6 @@
       <c r="BS3" t="s">
         <v>179</v>
       </c>
-      <c r="BT3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>185</v>
-      </c>
       <c r="BW3">
         <v>1.7398</v>
       </c>
@@ -2145,7 +2136,7 @@
         <v>0.61527777777777781</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -2252,7 +2243,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -2356,7 +2347,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -2463,7 +2454,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -2570,7 +2561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -2674,7 +2665,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>173</v>
       </c>
@@ -2778,7 +2769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>173</v>
       </c>
@@ -2885,7 +2876,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>173</v>
       </c>
@@ -2995,7 +2986,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>173</v>
       </c>
@@ -3099,7 +3090,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>173</v>
       </c>
@@ -3206,7 +3197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>173</v>
       </c>
@@ -3313,7 +3304,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>173</v>
       </c>
@@ -3420,7 +3411,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>173</v>
       </c>
@@ -3524,7 +3515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
@@ -3626,6 +3617,15 @@
       </c>
       <c r="BS17" t="s">
         <v>179</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3646,19 +3646,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CFC7D-096F-4A49-B44F-3C66E059D51A}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3779,18 +3779,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>193</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>197</v>
       </c>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -4470,37 +4470,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -4725,14 +4725,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>153</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>154</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>155</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>156</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>157</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>158</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>159</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -4856,62 +4856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5376,23 +5320,86 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC31D3BD-FDFB-48B7-8CFC-38C70EE42FCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5406,6 +5413,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC31D3BD-FDFB-48B7-8CFC-38C70EE42FCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>